--- a/biology/Médecine/Q_code/Q_code.xlsx
+++ b/biology/Médecine/Q_code/Q_code.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Q-Codes sont une classification contextuelle destinée à l'indexation de la documentation de la médecine de famille conjointement avec la Classification internationale des soins primaires, deuxieme édition CISP2. 
-La jonction des deux classifications forment la Classification du contenu de base en médecine générale, médecine familiale (3CGP)[1],[2],[3]. 
-Ils décrivent les activités non cliniques des généralistes. Ces activités non cliniques comprennent, mais sans s'y limiter, les questions de qualité, de continuité et d'éthique médicale[4].
-Les codes CISP2 et Q, contiennent ensemble moins de 1000 descripteurs spécifiques à la médecine de famille ou la médecine générale[5].
+La jonction des deux classifications forment la Classification du contenu de base en médecine générale, médecine familiale (3CGP). 
+Ils décrivent les activités non cliniques des généralistes. Ces activités non cliniques comprennent, mais sans s'y limiter, les questions de qualité, de continuité et d'éthique médicale.
+Les codes CISP2 et Q, contiennent ensemble moins de 1000 descripteurs spécifiques à la médecine de famille ou la médecine générale.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Voir</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>CISP2
 CIM10
@@ -547,7 +561,9 @@
           <t>QC catégorie de patients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>QC1 Groupe d’âge
 QC11 Nourrisson
@@ -603,7 +619,9 @@
           <t>QD enjeu du médecin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>QD1 communicateur
 QD11 Rencontre
@@ -673,7 +691,9 @@
           <t>QE éthique médicale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>QE1 éthique personnelle
 QE2 éthique professionnelle
@@ -709,7 +729,9 @@
           <t>QH santé de la planète</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>QH1 Santé environnementale
 QH11 pollution intérieure
@@ -743,7 +765,9 @@
           <t>QO autres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>QO1 impossible à coder, imprécis
 QO2 acronyme
@@ -776,7 +800,9 @@
           <t>QP enjeu du patient</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>QP1 sécurité du patient
 QP2 soins centrés sur le patient
@@ -827,7 +853,9 @@
           <t>QR recherche</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>QR1 philosophie des sciences
 QR2 épidémiologie des soins primaires
@@ -880,7 +908,9 @@
           <t>QS structure de la pratique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>QS1 établissement de soins primaires, Soins de santé primaires
 QS11 gestion de la pratique
@@ -929,7 +959,9 @@
           <t>QT gestion des connaissances</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">QT1 Enseignement
 QT11 Méthode pédagogique
